--- a/Complexity.xlsx
+++ b/Complexity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Midas\Documents\UU\MMR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Midas\Documents\UU\MMR\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>runTests</t>
   </si>
@@ -44,42 +44,18 @@
     <t>t = texts</t>
   </si>
   <si>
-    <t>m = metrics</t>
-  </si>
-  <si>
     <t>O(m)</t>
   </si>
   <si>
-    <t>createDataFrame</t>
-  </si>
-  <si>
     <t>processData</t>
   </si>
   <si>
-    <t>s = samples/t</t>
-  </si>
-  <si>
     <t>keepTexts</t>
   </si>
   <si>
-    <t>n = non-text samples</t>
-  </si>
-  <si>
-    <t>O(t*s+n)</t>
-  </si>
-  <si>
     <t>keepText</t>
   </si>
   <si>
-    <t>O((t*s+n)*m)</t>
-  </si>
-  <si>
-    <t>O(t*s*m)</t>
-  </si>
-  <si>
-    <t>O(s*m)</t>
-  </si>
-  <si>
     <t>filterData</t>
   </si>
   <si>
@@ -95,9 +71,6 @@
     <t>blinks</t>
   </si>
   <si>
-    <t>O(s)</t>
-  </si>
-  <si>
     <t>filterNegative</t>
   </si>
   <si>
@@ -119,9 +92,6 @@
     <t>storeSample</t>
   </si>
   <si>
-    <t>O(p*t*m)</t>
-  </si>
-  <si>
     <t>O(f)</t>
   </si>
   <si>
@@ -140,28 +110,43 @@
     <t>randomForests</t>
   </si>
   <si>
-    <t>O(f*m)</t>
-  </si>
-  <si>
-    <t>O(t*f*m)</t>
-  </si>
-  <si>
-    <t>O(m^2*f*log(f))</t>
-  </si>
-  <si>
-    <t>O(m*f*log(f))</t>
-  </si>
-  <si>
-    <t>O(p*(t*s+n)*m)</t>
-  </si>
-  <si>
-    <t>O(m*(p*e+m*f*log(f)))</t>
-  </si>
-  <si>
-    <t>e = entries/p</t>
-  </si>
-  <si>
     <t>f = fixations/t</t>
+  </si>
+  <si>
+    <t>O(t*f)</t>
+  </si>
+  <si>
+    <t>O(p*t)</t>
+  </si>
+  <si>
+    <t>n = non-text samples/p</t>
+  </si>
+  <si>
+    <t>O(p*t*log(p*t))</t>
+  </si>
+  <si>
+    <t>O(p*(t^2*m+n))</t>
+  </si>
+  <si>
+    <t>O(t^2*m+n)</t>
+  </si>
+  <si>
+    <t>O(t*m+n)</t>
+  </si>
+  <si>
+    <t>O(t^2*m)</t>
+  </si>
+  <si>
+    <t>O(m*t)</t>
+  </si>
+  <si>
+    <t>m = measurements/t</t>
+  </si>
+  <si>
+    <t>s = p * t</t>
+  </si>
+  <si>
+    <t>O(s*(t*m+log(s))+p*n)</t>
   </si>
 </sst>
 </file>
@@ -521,31 +506,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3CF3C6-F986-4A63-9448-5AB6153408F3}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -553,231 +538,214 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="L15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="L16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M9" s="1" t="s">
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="1" t="s">
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
